--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-medicalfeescoretype-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-medicalfeescoretype-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-17T08:24:08+00:00</t>
+    <t>2022-08-18T01:06:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-medicalfeescoretype-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-medicalfeescoretype-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T01:06:26+00:00</t>
+    <t>2022-08-18T06:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-medicalfeescoretype-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-medicalfeescoretype-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-18T06:30:33+00:00</t>
+    <t>2022-08-18T06:58:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-medicalfeescoretype-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-medicalfeescoretype-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T08:52:30+00:00</t>
+    <t>2022-08-31T10:13:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-medicalfeescoretype-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-medicalfeescoretype-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-31T10:13:48+00:00</t>
+    <t>2022-09-01T00:29:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-medicalfeescoretype-vs.xlsx
+++ b/jpcore-r4/feature/swg2-diagnosticreport-radiology/ValueSet-jp-medicalfeescoretype-vs.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T00:29:56+00:00</t>
+    <t>2022-09-01T02:21:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
